--- a/easyexcel/read/simpleRead.xlsx
+++ b/easyexcel/read/simpleRead.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Spring-Boot-EasyExcel\easyexcel\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092E14A-465E-4FF9-9BDC-C52B75AAF76C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D10A9F-49E6-4B53-A044-E1E36A2C2C2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="61">
   <si>
     <t>username</t>
   </si>
@@ -233,6 +234,22 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd068af1d6c24c0f849107688dd5994d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别脏数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主键脏数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,19 +575,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -584,12 +602,15 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -600,14 +621,17 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(A2+1)</f>
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -618,14 +642,17 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A25" si="0">SUM(A3+1)</f>
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -636,14 +663,17 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -654,14 +684,17 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -672,14 +705,17 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -690,14 +726,17 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -708,14 +747,17 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -726,14 +768,17 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -744,14 +789,17 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -762,14 +810,17 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -780,14 +831,17 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -798,14 +852,17 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -816,14 +873,17 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -834,14 +894,17 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -852,14 +915,17 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -870,14 +936,17 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -888,14 +957,17 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -906,14 +978,17 @@
       <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -924,14 +999,17 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -942,14 +1020,17 @@
       <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -960,14 +1041,17 @@
       <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -978,14 +1062,17 @@
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -996,14 +1083,17 @@
       <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1014,7 +1104,10 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1027,19 +1120,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AEF4D5-CE69-40A0-9EFF-DC8E6B04E675}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1053,12 +1147,15 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1069,14 +1166,17 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(A2+1)</f>
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1087,14 +1187,17 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A25" si="0">SUM(A3+1)</f>
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1105,14 +1208,17 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1123,14 +1229,17 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1141,14 +1250,17 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1159,14 +1271,17 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1177,14 +1292,17 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1195,14 +1313,17 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1213,14 +1334,17 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1231,14 +1355,17 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1249,14 +1376,17 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1267,14 +1397,17 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1285,14 +1418,17 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1303,14 +1439,17 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1321,14 +1460,17 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1339,14 +1481,17 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1357,14 +1502,17 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1375,14 +1523,17 @@
       <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1393,14 +1544,17 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1411,14 +1565,17 @@
       <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1429,14 +1586,17 @@
       <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1447,14 +1607,17 @@
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1465,14 +1628,17 @@
       <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1483,7 +1649,555 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFD1298-8C0A-4591-A442-4C6FC2B55B08}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>301</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>SUM(A2+1)</f>
+        <v>302</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="0">SUM(A3+1)</f>
+        <v>303</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUM(A7+2)</f>
+        <v>308</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>56</v>
       </c>
     </row>
